--- a/datasets/kpca_caz_avi_powder_4-1.xlsx
+++ b/datasets/kpca_caz_avi_powder_4-1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{011A2DBD-71DF-3348-AEEA-E959BC373CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39C614C-3998-1F47-81F6-5D30744C3209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3800" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="5180" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kpca_caz_avi_powder_4-1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="7">
   <si>
     <t>replicate</t>
   </si>
@@ -46,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +181,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -524,8 +530,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -880,10 +887,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -908,623 +917,1023 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>10000</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="1">
         <v>9.4</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>10000</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="1">
         <v>9.4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>10000</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="1">
         <v>9.25</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>10000</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="1">
         <v>17.66</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>10000</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="1">
         <v>24</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>8</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>10000</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="1">
         <v>9.4</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>10000</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="1">
         <v>9.4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>10000</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>10000</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="1">
         <v>14.17</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>10000</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="1">
         <v>24</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>10000</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="1">
         <v>9.4</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>10000</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="1">
         <v>9.4</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>10000</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="1">
         <v>9.4</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>10000</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="1">
         <v>14.1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>10000</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="1">
         <v>24</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>8</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>10000</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="1">
         <v>9.6</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>10000</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="1">
         <v>9.6</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>10000</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="1">
         <v>9.6</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>10000</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="1">
         <v>15.17</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>10000</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="1">
         <v>24</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>8</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>10000</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="1">
         <v>9</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>10000</v>
-      </c>
-      <c r="D23">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="1">
         <v>9.75</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>3</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>10000</v>
-      </c>
-      <c r="D24">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="1">
         <v>24</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>10000</v>
-      </c>
-      <c r="D25">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D25" s="1">
         <v>9.6</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>3</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>0.75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>10000</v>
-      </c>
-      <c r="D26">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="1">
         <v>17</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>5</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>1.25</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>7</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>10000</v>
-      </c>
-      <c r="D27">
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>7</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>10000</v>
-      </c>
-      <c r="D28">
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="1">
         <v>10.17</v>
       </c>
-      <c r="E28">
+      <c r="E29" s="1">
         <v>3</v>
       </c>
-      <c r="F28">
+      <c r="F29" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>10000</v>
-      </c>
-      <c r="D29">
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D30" s="1">
         <v>16</v>
       </c>
-      <c r="E29">
+      <c r="E30" s="1">
         <v>5</v>
       </c>
-      <c r="F29">
+      <c r="F30" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>8</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>10000</v>
-      </c>
-      <c r="D30">
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>8</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>10000</v>
-      </c>
-      <c r="D31">
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D32" s="1">
         <v>10.1</v>
       </c>
-      <c r="E31">
+      <c r="E32" s="1">
         <v>3</v>
       </c>
-      <c r="F31">
+      <c r="F32" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>10000</v>
-      </c>
-      <c r="D32">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="E32">
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E33" s="1">
         <v>5</v>
       </c>
-      <c r="F32">
+      <c r="F33" s="1">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>24</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D35" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D36" s="1">
+        <v>24</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D38" s="1">
+        <v>24</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D39" s="1">
+        <v>24</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>11</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>24</v>
+      </c>
+      <c r="E41" s="1">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D43" s="1">
+        <v>16</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D44" s="1">
+        <v>24</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D45" s="1">
+        <v>24</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>13</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D46" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D47" s="1">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>13</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D48" s="1">
+        <v>15.75</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>13</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D49" s="1">
+        <v>24</v>
+      </c>
+      <c r="E49" s="1">
+        <v>8</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>14</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D50" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D51" s="1">
+        <v>19</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>14</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D52" s="1">
+        <v>24</v>
+      </c>
+      <c r="E52" s="1">
+        <v>8</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
